--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/72_Tekirdağ_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/72_Tekirdağ_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CD12045-0CC2-41CB-8282-0CA4C5A264FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC85EBD0-4236-42CA-AC03-3F36FDDD8894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{D9BC0636-EC8A-4C07-86C0-80BC9B1B8269}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{D2142C44-82B4-45EE-A742-83FB00594BB0}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -953,13 +953,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{CC11C646-C585-4066-963F-E061E077C83E}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{F444BF5B-4F05-4292-AE0A-01B2EB43BF89}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{DB5AA255-6808-4AAF-B226-84766B4B2A52}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{F4495A47-B172-4D16-BE43-0FB44B8D98D8}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{EECB198D-688E-4B54-AD4B-B659D87B6C95}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{A8648F56-B5CC-4D21-B83E-01EA9754B645}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{9D579C6C-7236-41B0-8219-DB967562FE4E}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{294531CD-93CD-4EB3-AC85-3C3575868DD0}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{00000BD2-AFC1-428A-8E77-A90861A94D3A}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{EDEE8A7F-A538-4107-889B-ECE649623946}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{E72BB10E-9535-4B1F-9D64-90546AB5F8CC}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{77E3897C-EE9A-438E-B076-7494E065FEA7}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{61E90DEB-75DF-4BCD-B9DB-8ECCE2D3973F}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{81CF8316-81EC-4878-82A8-C935052EEF39}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1329,7 +1329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BABB500D-C9B9-424F-A63D-1EC8A3CCB033}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{815F6118-7536-42FF-AF3D-28E9D5912F37}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2594,18 +2594,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ECC11756-1A61-40B8-862C-E4BF71032DED}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{31B3B35B-CC0B-4311-A39E-5482D2416F1D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{56B20092-0856-441A-9D9E-7696AA34E449}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{04311477-12DC-49AA-9ABE-DA7F08ED0167}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{16660024-D111-46E6-90AE-279E1D678BCA}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{52773D65-55F7-46B3-9AD0-555004565D95}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F21F0EBE-2121-4FFA-A0FC-A26BFDD059DA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{93D4F5EF-5F2E-4179-9DDF-B5FA98E7EB83}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2411CBCF-3E76-4CBC-971E-15BA52ED7AFC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6E4861AF-F021-4038-BAB5-427D568A74B6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{42478604-0F44-4CFC-871E-B0DC2A50AA9F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6A2637BA-7158-4AF8-8DF8-A065668021EF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2781E534-B4F2-47FA-9019-FCAA9686143C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E239AE1B-C818-42B4-98F8-2BA4BEB57AAC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{97A32AE2-1380-4E53-BAE7-05DF4AACA827}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{066D0EFB-E7A4-44E6-A54A-EC8D0F00ECD2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3E17764B-B2D4-4A88-9B37-75CE0EE2B6B1}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{703BACF7-EC72-4A54-8E0C-B44EB347235D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{14D1EB0C-A35C-4D9B-8493-9219F5015175}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AE5AA1F5-B4E7-4084-B461-CDBA40DC8BA5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{110E110C-8306-4860-9F20-77B94542107D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{45843F10-C754-48A9-97DA-9153CDF53DF0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{599C515B-7AD7-43B8-9334-2146C92EB892}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9B5B1CE6-974D-47D9-85CF-60093261172E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2618,7 +2618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E324660-6B16-4778-9ABC-41FC9B62CA35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA16012C-7ABB-4CD6-89F8-B49AF8420D85}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3878,18 +3878,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DFC29152-DA02-4264-8917-64FABA0790B3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8F2B9DB2-EF4C-4D17-9028-7FB376B3E10C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BA512AFE-F041-4D85-A02D-6498F9CD2BDF}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F73C9EF4-EEB7-4CB2-9423-18B49C19FD6C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0A90C8E7-6EA4-473F-9E08-CFFEB57B992D}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1E300C17-2627-4F6A-95C6-9E0EBA60633B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{30AA35DE-F056-4675-82EC-510253E08D68}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7EA1B84C-DBCA-48AE-8A95-B9BE1766E1AD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{49A7A232-BFFE-4571-955C-CCC53FC030DC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B38BCF5E-DD77-4326-9FD5-E5B23CF30D36}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{04237EAD-1A18-4BB9-AF48-F49E8D2EE6B7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1ECDF6FD-8BC3-4C4E-81E1-7E1C7968120C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0FEF739C-5F6C-41BD-B380-5CE46CCDB0AE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B9E5A4A1-CAE7-4FFB-8F35-9D3BB714E009}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C4320DF9-7683-4AB4-A65C-F29C8A1346A9}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4EC412D6-0FFA-4C2A-A67D-FBB58ED0FBE4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CC3287A1-54CC-46DA-8526-FBA6592B0CEC}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0FA3276C-DE5D-48CE-8399-B96F95CBC3CE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C9A713E2-CF31-4729-975C-98FE8B64D7F8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{82F6817C-816D-4445-8D53-E55ECAD2E869}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6E3A2E60-C727-47B0-9865-90E716D733CA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{77F49C2A-BF02-4F89-8BEA-625FD06A0C31}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2DCA4776-97AB-4B00-B22C-D1EC48E7D60A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{006DCA9D-5AB5-4A8B-B40A-7ADEF7FB66C8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3902,7 +3902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D4770E-7C90-4CCF-B596-523815E4DE0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6476F809-068F-42B7-9F1F-429E009AD8F6}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5158,18 +5158,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0B5061A4-8260-4695-B75F-25B375D924E7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{621A0A05-D99F-48FD-8CB9-E344F3BD99BE}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8B715EC4-DE95-4F69-BB4F-397B8377D890}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D455DF29-3E06-4DCB-B416-AA8506007EA4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4F2D0D55-CABB-4704-9B4D-60658BBA353E}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{21F232D4-79C8-4A37-AF44-556C526B4253}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{443EC343-2056-4914-A2B6-99AFC007A640}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B9E4E601-52C1-43CF-9B9C-3B48D8008D41}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AAFD6747-A0BC-4893-B9AB-1A5769859A93}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B75BDC57-42B8-4AF3-8ADD-CCAA8CFC22CD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7CD28223-084B-40CA-82B1-9AEF9EC11CB4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{737D5032-92DC-4EDC-8C24-3B6714DF48EE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{36DA04E0-B86A-41AF-BB30-11609FDC9856}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BD33FFD1-ABD2-4EAC-A327-4D9BEA50F3C5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5B6DD4A8-AB1B-4EEF-B9C4-B7D874CE1089}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{87E6B1D5-652B-4296-BFEB-1EAA79B16A0C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0D52E757-5D20-4861-91AA-236FEEC5BA95}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E3868B3D-A528-425A-9B59-6597451006F9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{86634F06-A8E9-495C-8611-CFE801FE65CA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D7E8F7F2-79F8-4AB6-9655-F6AD034F0362}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BC926FC3-535E-4D4E-A996-4A7DF3616214}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3434DAE5-99C9-4E79-9803-BFB71904B4D0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DF4B70C8-3E9B-40F1-AB66-FD9F875F232C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5493F457-2560-4AA8-AEBD-2ABB8DF6E3EC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5182,7 +5182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{110E2887-5B66-4990-80EE-5985590B47DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36BC86B-591D-47FB-8143-E91E67861898}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6434,18 +6434,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AC9C6CAE-D922-4F7C-B85D-FCB4E81A3375}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{026CE4E6-E211-4FEE-AF3F-D89399006783}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5CAE569E-81BA-41E7-A2E2-A74D2A8C3456}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{532591D6-46A2-4F73-ACF7-FEFA44FCECCC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E74EDB03-8C44-49C4-8146-BF847EDAE12E}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{915DE021-21AC-4AA7-A45F-0301619681CE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{94D116B6-A791-4231-9F82-BA9D982E7365}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E6281044-87E0-43FD-852C-072895A1C76E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F8D6008F-04D1-4B87-9623-42BF74233035}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E5542136-9149-4BAF-941E-2A2E44BD3E87}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{58C3D77D-4E16-4F74-B1B7-684CE88E7DF8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E7EC2EC2-7DB5-4FCF-8B37-3AA65EA3D9B0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6AB50D4D-3259-40BF-877C-3F1F9AFA8CE1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{211B2626-8064-43E3-9E95-182EC14D3C21}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A7ADAFCC-C443-41E4-8382-DACF59462CB2}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{33CD1930-104F-4285-A20A-79596732EF2E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{34E2C019-89E8-4B9B-9D3B-F249FD9EED1C}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{534B7C1E-EF1E-4A07-8A7E-5E24FF6DB1C1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1FD59134-9767-4B2C-A65E-C4A1A110536C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{235F4AEB-BE67-403D-86AA-0CB8D8A683D0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{11117D48-49E6-447C-84DE-7C2E7815DB28}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4284A928-2044-4BA8-9F2B-40198F6FBD59}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{680B2A9D-85ED-4331-83C1-DC7F84D759CD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1600E384-9894-401B-99FD-67449E42371A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6458,7 +6458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19EB8068-29B3-4D94-8150-2AB62D128732}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B7687CB-8161-45AA-B42D-2F4780BE7C42}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7725,18 +7725,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{386C38D7-8008-4187-A47A-FC38B93DBC46}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0473C1CB-6B9B-488B-8B2A-5E3838D272C9}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6A47E6C2-BB36-4B8D-8B7E-779B897EE060}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EF08C75A-1196-4F59-AD09-621F248F9CC7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D285045F-F34E-42EC-B01C-1B3B3CC9F781}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BBCB5979-2000-4631-B042-7EBC516FBF03}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B554C412-7B74-41CE-B0FA-0A834C5B18DF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2C21C475-E1C9-4369-8491-7971E146A6D7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9DEF9517-2C82-4A77-84C3-CD63942488EE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4B0C1DB7-7535-401D-86A3-EAADC706E462}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8C0625B8-8FFA-4953-80BC-728928616E35}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{517A3F41-9919-4390-8DA4-AFFECBCAF10B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7ED7492B-92E9-484A-B09B-A6813F6B66AD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3DDAA58A-96D4-403D-B235-D73A8C5A838C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0E509D4B-9CFC-4552-96FD-F3C8BDC69940}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{18B84756-314E-4DB9-8867-CB0E90AE8506}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0B6F8AFF-F2C6-4973-BC15-4CC52FA86C7D}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B3FAEE24-6971-4635-B74A-1A269AB7CE32}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8CA6EA0B-4852-4F1A-A121-95B75582524D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BF7C1521-E7D0-47CB-B753-712260B95B5F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{065EBB2F-C4AD-441E-A863-A9FB3ACC8CCE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{00985508-7ED1-459B-B215-9CA20F3EA7BB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2981B0E0-227C-44DF-8292-1F96CF74204E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D3CC82E1-F7A8-4749-B5CB-B4694E1083E2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7749,7 +7749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CAA88B-1563-47A9-BD9F-2A065E5BE257}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38C82E7-AF07-4F8A-A43F-0EC7EBD25405}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9012,18 +9012,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{04864D7E-2201-4374-99CE-877D9940D339}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{26E1B9C3-70BB-41B5-81A3-E02F6810639D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{89520DAF-A169-4B80-B51F-BAFBE1842CB5}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9312F33E-AF65-49A7-BA8D-59B009D3F48D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{239226B9-AB36-4F93-8301-B34DFC5D1E1B}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4847686A-E167-40E4-823B-EEAE0B4B7B77}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BF60E1EF-EC53-44C3-B26B-411057405370}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D39B6577-7AF8-46DD-BB3E-00FD22C6D33F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4FD94E79-FDE0-4A51-82B9-38AC3E5AADD3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{234F2670-5DC5-4FAB-A02E-4961D61749B0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9F20C492-FBBC-4A40-8F72-39A0673E5158}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{902E425A-3BF0-4F10-AB2A-A835DD416978}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0AF7AE39-810C-4E08-999A-6F76F8226838}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CD7A5F5C-278C-4487-AE66-AAE266E255CB}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B49478FE-7A95-47A8-8020-12165E35E820}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{97B51DB9-844A-45B3-BDEA-B03078178090}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{39713621-F99C-4473-B040-5A26A9868401}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2D901254-F567-4341-9FFE-5C4CA271D1E5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DFCDAD53-FF0C-43E3-862C-DE1BE4953020}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A78D73FC-AFA8-49E7-B59F-E8C52C2E06B1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{301DBADB-3943-42E9-93F8-E68C08D64702}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{38F65F83-638F-49B8-8E20-1342825DD4B6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{58B51CC5-928D-4CCA-8224-96B1DE72BD5A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E2333C64-1A9B-40F9-BFD7-64C8A6220A94}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9036,7 +9036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0059E8C8-B880-4882-AF29-289193A2457C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2818F0-D0E0-426B-8E3D-AB8BC7AB8F3D}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10299,18 +10299,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1779C4F6-1074-482A-886E-B8A48B9A2AC4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{13AF8F67-C930-4646-BB59-BEB1979DF78B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F8A3EFB3-BB21-4393-8ABC-A320F61B9D11}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4AE8E842-E36F-49EF-BD01-F4A3E83EB761}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D7A16ECC-505D-4CAF-9564-21793EB6F8CD}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8E76F281-015A-45CA-829C-8C04C331E42D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{36571F1F-3A3A-4A1D-9FBB-6A544ACA9231}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A7C50DDB-16B4-4220-A8D0-16DB645B0C42}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FCDD8E3D-C159-45AB-944C-590804177E76}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{043AC9B1-F5DA-4599-BDEC-3515C09F9254}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B38FBA0A-CAF3-469B-9892-A453BDD61F91}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B0634332-880A-4A6C-9098-1E7082D5D8C0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6FB694AA-728F-4625-B904-880AB4315180}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2891EAF6-DC00-4CBB-9628-03C26270C6E5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0C75CB8C-442C-49CC-9827-F1A7C33C1DB5}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{942A91DE-16DA-4AB4-B6FB-BECA82E3983F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CFF1A2ED-F09D-487D-A348-5A6DDCE13085}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B3D3A464-4B71-4B23-B7A3-1CEEBA2FA81E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EB4D84F3-C8CD-47DB-800D-7CE2C1A79F46}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A99324A2-921D-4F12-839F-30C08CFC45E0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{76B10489-700D-4934-9520-932729AC3A49}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{40F6CB3D-6389-4726-9A8E-0078B2D5AD3F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7B419168-DBC3-44CF-B1D3-FE4AB22E052A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F70821CF-98A2-422E-9059-A99C88250B92}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10323,7 +10323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9069D360-4316-421A-84E2-2CB5D8C5E5F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94DC2195-4546-46A1-B244-80E853743411}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11582,18 +11582,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A49B8C68-3C54-437E-827C-7E85B319EE4A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5230A0EE-ACFC-476C-BE0C-51AFBB6A185A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{67702527-0BAD-494C-885D-985676B42F93}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F664FD2B-2932-4DD2-B213-476E40052EAE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{51253A19-1CD1-4F8C-88D7-470F41A50C16}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C960512A-4402-4D8A-B400-0CA2FFD8790D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AE71F1C8-23B6-4878-863C-0E59533B6527}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CDA89B4F-93E4-4879-B18D-106728D42039}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3C7C8A16-043F-45F5-A90F-157FB556ADE9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6D48DB9E-ECFA-4B9D-959C-6F0CD2C16399}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4FDE6895-B2A8-4DAA-8A8F-DB48F62C3366}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A4016AAE-B0FD-4A6B-B461-A8F4CCC50A77}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CF433E72-1EA1-40F4-8BA9-4E335744B80C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1B80FB78-3DB5-4046-8A5B-E19673D3F407}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E62CC4FA-F737-4FB1-8B65-D389E2374907}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B53A3E28-FECC-4A0C-A289-4711E968F20C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1EF62A7B-E549-4136-A1A8-2139C15FE556}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{76A8D450-5803-49F1-A518-3CD3585BA801}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{33D6986A-4F0C-484B-B667-042EFD4E9D8A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{06D041BC-96D2-4E11-ABAA-12303A1CFFC2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6E785B46-BAD0-41AC-AB34-FBEC9AAECC10}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{40E33B92-1FC3-4E1C-A219-56CAE0D8D345}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4DDDE7EC-96A8-458E-8C67-91E3C53A6DD8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1EF2EBE2-7889-48F5-B423-943E51A85B6A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11606,7 +11606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BF405B-C538-41A0-9978-ABBF518D5E1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2A8AC5-1BEB-4F60-8D8E-7FD7C51A8941}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -12866,18 +12866,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{967741F8-1780-43F3-A2D1-5128F13D18F6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2FDB6F5F-6063-4B03-B91D-B889C6232A83}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A7311537-700E-41A5-AB09-387D81BF1F9A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C4A6127C-4075-4176-A0C0-DE3F48AAE682}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E8770A98-5A25-4D80-AF35-AB52B52A1268}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A93CA1BD-5309-47B9-AA7C-D490BE3A9A48}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{98E19CBF-D0E1-4651-8B1F-92834ED2D549}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7A6F5337-1E29-41EA-B0C1-8C6C791AFE39}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{80FC7354-E8B7-41A8-BBDD-5C625C944172}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{02FFAD93-95BF-4618-9E0D-2800ABC60652}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{34BC6DEF-073F-4AB5-906D-0E1062367AF4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{92DF7DE0-1CC0-462A-AE47-33C3365068BF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{63C8B033-BA16-4A2E-ABCA-C62BD39B4ECE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{82645EE3-A7BE-45D2-8F1D-566AA86D6F0F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3AFF6F6E-4B0A-4CD8-B0FE-876700A906CA}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0683187E-FA89-4292-9DFB-96CEDFD7B80E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3A9473D7-293E-47F7-95C7-9A9F60D3FE2E}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E57329A9-61C8-451D-9052-2170D9DF3DBE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C90B629D-2F36-4DD8-A3AA-B5BDD3E75720}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{91B5A18F-DFCB-4BFD-A45A-08F549546BF5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2062941F-8E21-4AB9-A265-07D40C9C4EE8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{34CF5DA4-E162-4AF9-9070-7306B91D1E08}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{17305D44-B9A8-4FF8-AD7C-F36C5F61D22D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{164BF416-4ECC-4C3B-9912-E897FB307E20}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12890,7 +12890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388C70D3-3CB5-4CC4-B0CA-8724B522781C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2678E42-CB49-4F14-85BB-AF279C193495}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -14150,18 +14150,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{67A2201B-FED2-4888-A8A3-B8B0331E80E8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A3FFBD35-37E3-4401-8E37-1DF33E2DBF48}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{77878356-CD21-4223-877D-F18042EA092B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0D5C5FFE-0CD7-42E8-BDEC-9381CF20FF20}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AF12165D-FD00-486B-A6A5-FB6310CEB9EC}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{86A49274-8E06-474F-9758-A5B2A7B55527}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8F8A61D7-1E28-4CD2-9263-84FCDDA43DA9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F59FE364-7611-435E-92C9-4C17436322A2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{00D6E927-199D-476A-826E-682DFDA4DA97}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D5F0D8CC-C86F-4281-9426-75DFED3779EC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8C005CB4-2379-445A-AD08-75FF69190F47}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4DBEA73A-6DB4-4757-9E3F-B62F7A8FD48F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{671C7B1D-433D-4D11-BC64-BD0581B6723F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1AA2F494-35EC-410C-A6E0-1C8C2DFF5FE1}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FE2CC263-C9BD-46D2-981D-CDEC8A8F38A0}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DAE3F443-EC80-4ABB-82F1-C3F5A83ABDE9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F683CEA0-F40A-4207-81E1-F18BD92177FA}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F9A43405-5790-4FB2-9162-98CDEEDEAA9A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7D31A64F-2CF7-4326-87D3-51C66AAB9D2C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D536238F-B955-4DEB-8023-0C5E1A2CAC9A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ED375931-0ADF-452F-A5D6-199D8F2017C0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DC949BA1-9121-4363-954B-01036C408258}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6D69EF20-FB34-4C03-8DCE-E69C1DAD2502}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E3332A03-6F6D-4CBD-887E-A3535C5102DB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14174,7 +14174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC876C8-4A64-41F9-BA58-2906FDDD1B09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE111873-7BDD-4923-8C30-8EBA677DFB57}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -15434,18 +15434,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{717520A6-622F-41DC-B67C-9F25D2593F83}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{24DD79DA-8342-441C-92D2-6704EFEDF986}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D0BD564B-5D03-4C35-9D35-A7B6BF10A4E9}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A66DA210-5CE3-4139-9616-11B2B1392505}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9F6F5AA4-5B4D-4A95-BA27-3161E00C21EE}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EF329AD5-56AB-40DA-8536-875CF10B2370}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{678B27B1-928D-4219-A6F4-E22651BB6B59}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ED28D513-15F4-405A-8944-F8BD52A7BB54}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BC0A9F62-8437-4886-AB97-FF6F47BD03EF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0E36C4A3-1AAF-447D-AF66-0EBBF3F5F8AD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E65901FF-45A8-436E-AE59-BAAAA6A72DBC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D784E610-3FDB-4B13-A22B-EF55A2B4FFBE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D67C1CAD-466A-484C-B513-68ADD6EB8623}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4C9E95E1-5040-4E3B-BFE3-F0EA8B9B163F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FE44EC57-D7D7-4D9C-BC2D-54A36E862E7C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{21B6FCEB-43FE-4C34-AAE7-4CD0F83F7FBB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A1C7377F-F9B4-448D-B9BD-A9F25BEE6790}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C456E911-47DD-41EE-AD5D-4CEBE492D45F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{78A21E6E-2529-40BB-B05E-826EF881063C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{03086260-B62D-4C21-A597-29D5A94F11D5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A850B864-5BC1-4003-A4DA-270232F8E98C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EDFACFFD-D495-4354-92EB-5D991499C6E6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{83ACB892-3F03-4DD5-BA02-EAECB5411AD5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0D23DC36-64A5-451D-9216-6FA8594C0C70}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15458,7 +15458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA673BB-9908-4A0C-AFCF-91B7B0F11541}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424BA0BC-DE53-435F-9B4A-9F9B00DFCB7A}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -16718,18 +16718,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{221EA311-D16D-43A1-BC63-EAB9151C4036}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B75B33BB-1B62-41E5-B71F-3A23232FFE5D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D7A8A2F0-6E1E-4B18-AFB0-66ECCEE12678}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{359546BE-B558-4372-8FF8-EA53B7EC6601}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D07A1786-F3E8-44C2-A944-2137D49818E7}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5960C3D5-BC75-41B3-9290-439804787F0E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{72C1790B-2BB7-49A3-9EC6-F78232E46DCE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{912FD362-EA2D-4AB8-BB86-E6E6DD9AA725}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{33427027-B1BF-481D-B4E5-6520FAD6E9D7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B80E6550-A2A0-4C4B-9703-A3E529FA0E67}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{93D6FFBB-4F56-4420-BD17-962317D6000D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7B81FC76-84F2-4EBD-9A74-CD50634E1ABA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2D2139E5-9039-4357-A9B9-18A27A1B83AA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8B79D11D-A25B-421A-A166-4D2DB33C1D3D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A8BFCD17-E021-49CD-96B2-88CD80B3B24E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{03F65941-BCD5-4FBE-AE20-54A4C1790AF9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D02C77E6-AB9B-4656-AEC2-7B91941851F5}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{10CB2B32-A47D-44F4-A6BE-78D7F6145286}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D18F19E5-6A87-437A-9CE6-C3814799D135}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EADC410D-0097-4026-BF4F-F10D16A47D51}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9337787E-D82F-4405-B6F4-04D0A095D0A8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5257E3C5-674B-434F-ACF1-4EE051C5F99C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1A563C44-F81C-4CDB-BE09-75A532AB4496}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{927EA3A5-C18B-46E6-9031-6339A84AC120}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
